--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ME</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0272104810476839</v>
+        <v>0.1196643795433455</v>
       </c>
       <c r="C2">
-        <v>0.381361992469342</v>
+        <v>0.4311790077471714</v>
       </c>
       <c r="D2">
-        <v>0.3491091507168677</v>
+        <v>0.2593780065637157</v>
       </c>
       <c r="E2">
-        <v>0.5908545935480808</v>
+        <v>0.509291671406195</v>
       </c>
       <c r="F2">
-        <v>0.6125082332967703</v>
+        <v>0.5137208310754531</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1323802532879451</v>
+        <v>0.1031233158734826</v>
       </c>
       <c r="C3">
-        <v>0.4216107469797357</v>
+        <v>0.3615473318654818</v>
       </c>
       <c r="D3">
-        <v>0.4664420853738647</v>
+        <v>0.2153226717276779</v>
       </c>
       <c r="E3">
-        <v>0.6829656546078029</v>
+        <v>0.4640287401957749</v>
       </c>
       <c r="F3">
-        <v>0.6973717445328026</v>
+        <v>0.4708987236181263</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -490,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1226621314840486</v>
+        <v>0.1715531831306264</v>
       </c>
       <c r="C4">
-        <v>0.511162025793323</v>
+        <v>0.6362730885198975</v>
       </c>
       <c r="D4">
-        <v>0.6330782294977604</v>
+        <v>0.7952461905435021</v>
       </c>
       <c r="E4">
-        <v>0.7956621327534448</v>
+        <v>0.8917657711212638</v>
       </c>
       <c r="F4">
-        <v>0.8211071667389434</v>
+        <v>0.914021501180113</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -513,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.05926794261926783</v>
+        <v>0.2524150092910198</v>
       </c>
       <c r="C5">
-        <v>0.5065409700594369</v>
+        <v>0.6280498924479758</v>
       </c>
       <c r="D5">
-        <v>0.5385343766439102</v>
+        <v>1.020506542609963</v>
       </c>
       <c r="E5">
-        <v>0.7338490148824282</v>
+        <v>1.010201238669783</v>
       </c>
       <c r="F5">
-        <v>0.7671530853641586</v>
+        <v>1.025900836467168</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -536,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01880526311880431</v>
+        <v>0.1672632190142579</v>
       </c>
       <c r="C6">
-        <v>0.4251950670653798</v>
+        <v>0.4920935882630871</v>
       </c>
       <c r="D6">
-        <v>0.3376671520720453</v>
+        <v>0.5780268184013607</v>
       </c>
       <c r="E6">
-        <v>0.5810913457211743</v>
+        <v>0.7602807497243111</v>
       </c>
       <c r="F6">
-        <v>0.6122032289209177</v>
+        <v>0.7817713746261321</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -559,22 +562,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04143641660762199</v>
+        <v>0.04919676379112856</v>
       </c>
       <c r="C7">
-        <v>0.5274211979412128</v>
+        <v>0.4710688180516911</v>
       </c>
       <c r="D7">
-        <v>0.4795510635334225</v>
+        <v>0.4742404420980256</v>
       </c>
       <c r="E7">
-        <v>0.6924962552486638</v>
+        <v>0.6886511759214716</v>
       </c>
       <c r="F7">
-        <v>0.7466412132996</v>
+        <v>0.7285586013470837</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -582,22 +585,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.3197628685822629</v>
+        <v>-0.09646499961979775</v>
       </c>
       <c r="C8">
-        <v>0.5102362359160502</v>
+        <v>0.4357283444034626</v>
       </c>
       <c r="D8">
-        <v>0.3951420621340407</v>
+        <v>0.2943364263897597</v>
       </c>
       <c r="E8">
-        <v>0.6286032629043861</v>
+        <v>0.5425278116279014</v>
       </c>
       <c r="F8">
-        <v>0.6249200162261654</v>
+        <v>0.584839393582319</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -605,18 +608,41 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.8199982089966369</v>
+        <v>-0.1901586249338153</v>
       </c>
       <c r="C9">
-        <v>0.8199982089966369</v>
+        <v>0.3356701559601163</v>
       </c>
       <c r="D9">
-        <v>0.6723970627576922</v>
+        <v>0.2161827050533335</v>
       </c>
       <c r="E9">
-        <v>0.8199982089966369</v>
+        <v>0.4649545193385408</v>
+      </c>
+      <c r="F9">
+        <v>0.5196475763677928</v>
       </c>
       <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>-0.4377465499738378</v>
+      </c>
+      <c r="C10">
+        <v>0.4377465499738378</v>
+      </c>
+      <c r="D10">
+        <v>0.1916220420139977</v>
+      </c>
+      <c r="E10">
+        <v>0.4377465499738378</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -447,19 +447,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1196643795433455</v>
+        <v>0.0272104810476839</v>
       </c>
       <c r="C2">
-        <v>0.4311790077471714</v>
+        <v>0.381361992469342</v>
       </c>
       <c r="D2">
-        <v>0.2593780065637157</v>
+        <v>0.3491091507168677</v>
       </c>
       <c r="E2">
-        <v>0.509291671406195</v>
+        <v>0.5908545935480808</v>
       </c>
       <c r="F2">
-        <v>0.5137208310754531</v>
+        <v>0.6125082332967703</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -470,19 +470,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1031233158734826</v>
+        <v>0.1323802532879451</v>
       </c>
       <c r="C3">
-        <v>0.3615473318654818</v>
+        <v>0.4216107469797357</v>
       </c>
       <c r="D3">
-        <v>0.2153226717276779</v>
+        <v>0.4664420853738647</v>
       </c>
       <c r="E3">
-        <v>0.4640287401957749</v>
+        <v>0.6829656546078029</v>
       </c>
       <c r="F3">
-        <v>0.4708987236181263</v>
+        <v>0.6973717445328026</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -493,19 +493,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1715531831306264</v>
+        <v>0.1226621314840486</v>
       </c>
       <c r="C4">
-        <v>0.6362730885198975</v>
+        <v>0.511162025793323</v>
       </c>
       <c r="D4">
-        <v>0.7952461905435021</v>
+        <v>0.6330782294977604</v>
       </c>
       <c r="E4">
-        <v>0.8917657711212638</v>
+        <v>0.7956621327534448</v>
       </c>
       <c r="F4">
-        <v>0.914021501180113</v>
+        <v>0.8211071667389434</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -516,19 +516,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2524150092910198</v>
+        <v>0.05926794261926783</v>
       </c>
       <c r="C5">
-        <v>0.6280498924479758</v>
+        <v>0.5065409700594369</v>
       </c>
       <c r="D5">
-        <v>1.020506542609963</v>
+        <v>0.5385343766439102</v>
       </c>
       <c r="E5">
-        <v>1.010201238669783</v>
+        <v>0.7338490148824282</v>
       </c>
       <c r="F5">
-        <v>1.025900836467168</v>
+        <v>0.7671530853641586</v>
       </c>
       <c r="G5">
         <v>11</v>
@@ -539,19 +539,19 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1672632190142579</v>
+        <v>-0.01880526311880431</v>
       </c>
       <c r="C6">
-        <v>0.4920935882630871</v>
+        <v>0.4251950670653798</v>
       </c>
       <c r="D6">
-        <v>0.5780268184013607</v>
+        <v>0.3376671520720453</v>
       </c>
       <c r="E6">
-        <v>0.7602807497243111</v>
+        <v>0.5810913457211743</v>
       </c>
       <c r="F6">
-        <v>0.7817713746261321</v>
+        <v>0.6122032289209177</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -562,19 +562,19 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.04919676379112856</v>
+        <v>-0.04878362568756089</v>
       </c>
       <c r="C7">
-        <v>0.4710688180516911</v>
+        <v>0.4489945189615317</v>
       </c>
       <c r="D7">
-        <v>0.4742404420980256</v>
+        <v>0.3809843224169152</v>
       </c>
       <c r="E7">
-        <v>0.6886511759214716</v>
+        <v>0.6172392748496447</v>
       </c>
       <c r="F7">
-        <v>0.7285586013470837</v>
+        <v>0.6526331590693982</v>
       </c>
       <c r="G7">
         <v>9</v>
@@ -585,19 +585,19 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.09646499961979775</v>
+        <v>-0.2380091527088908</v>
       </c>
       <c r="C8">
-        <v>0.4357283444034626</v>
+        <v>0.3649913975980823</v>
       </c>
       <c r="D8">
-        <v>0.2943364263897597</v>
+        <v>0.267128208091335</v>
       </c>
       <c r="E8">
-        <v>0.5425278116279014</v>
+        <v>0.5168444718591222</v>
       </c>
       <c r="F8">
-        <v>0.584839393582319</v>
+        <v>0.5025692206868195</v>
       </c>
       <c r="G8">
         <v>6</v>
@@ -608,19 +608,19 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.1901586249338153</v>
+        <v>-0.3029994029988738</v>
       </c>
       <c r="C9">
-        <v>0.3356701559601163</v>
+        <v>0.4096660696655476</v>
       </c>
       <c r="D9">
-        <v>0.2161827050533335</v>
+        <v>0.2533326875858977</v>
       </c>
       <c r="E9">
-        <v>0.4649545193385408</v>
+        <v>0.5033216541992781</v>
       </c>
       <c r="F9">
-        <v>0.5196475763677928</v>
+        <v>0.4922256332743508</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -631,16 +631,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.4377465499738378</v>
+        <v>-0.4690015876295774</v>
       </c>
       <c r="C10">
-        <v>0.4377465499738378</v>
+        <v>0.4690015876295774</v>
       </c>
       <c r="D10">
-        <v>0.1916220420139977</v>
+        <v>0.2199624891990642</v>
       </c>
       <c r="E10">
-        <v>0.4377465499738378</v>
+        <v>0.4690015876295774</v>
       </c>
       <c r="G10">
         <v>1</v>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0272104810476839</v>
+        <v>0.2240261301401967</v>
       </c>
       <c r="C2">
-        <v>0.381361992469342</v>
+        <v>1.34776042189687</v>
       </c>
       <c r="D2">
-        <v>0.3491091507168677</v>
+        <v>8.330079577401087</v>
       </c>
       <c r="E2">
-        <v>0.5908545935480808</v>
+        <v>2.886187723867089</v>
       </c>
       <c r="F2">
-        <v>0.6125082332967703</v>
+        <v>2.9061124733609</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1323802532879451</v>
+        <v>0.3015350435189421</v>
       </c>
       <c r="C3">
-        <v>0.4216107469797357</v>
+        <v>1.634473129698246</v>
       </c>
       <c r="D3">
-        <v>0.4664420853738647</v>
+        <v>9.405841710792368</v>
       </c>
       <c r="E3">
-        <v>0.6829656546078029</v>
+        <v>3.066894473370802</v>
       </c>
       <c r="F3">
-        <v>0.6973717445328026</v>
+        <v>3.083021035019027</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -493,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1226621314840486</v>
+        <v>0.2397024084672859</v>
       </c>
       <c r="C4">
-        <v>0.511162025793323</v>
+        <v>1.273559806460503</v>
       </c>
       <c r="D4">
-        <v>0.6330782294977604</v>
+        <v>6.25558203749066</v>
       </c>
       <c r="E4">
-        <v>0.7956621327534448</v>
+        <v>2.501116158336246</v>
       </c>
       <c r="F4">
-        <v>0.8211071667389434</v>
+        <v>2.515403027889767</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -516,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.05926794261926783</v>
+        <v>0.28645024546988</v>
       </c>
       <c r="C5">
-        <v>0.5065409700594369</v>
+        <v>1.336241691786354</v>
       </c>
       <c r="D5">
-        <v>0.5385343766439102</v>
+        <v>6.93067963156568</v>
       </c>
       <c r="E5">
-        <v>0.7338490148824282</v>
+        <v>2.632618398394587</v>
       </c>
       <c r="F5">
-        <v>0.7671530853641586</v>
+        <v>2.644681707289316</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -539,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01880526311880431</v>
+        <v>0.2510080378810327</v>
       </c>
       <c r="C6">
-        <v>0.4251950670653798</v>
+        <v>1.618237384748787</v>
       </c>
       <c r="D6">
-        <v>0.3376671520720453</v>
+        <v>9.429041488443973</v>
       </c>
       <c r="E6">
-        <v>0.5810913457211743</v>
+        <v>3.070674435436615</v>
       </c>
       <c r="F6">
-        <v>0.6122032289209177</v>
+        <v>3.09348443368957</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -562,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.04878362568756089</v>
+        <v>0.317070059663221</v>
       </c>
       <c r="C7">
-        <v>0.4489945189615317</v>
+        <v>1.568161529071841</v>
       </c>
       <c r="D7">
-        <v>0.3809843224169152</v>
+        <v>8.05755616701061</v>
       </c>
       <c r="E7">
-        <v>0.6172392748496447</v>
+        <v>2.838583478957525</v>
       </c>
       <c r="F7">
-        <v>0.6526331590693982</v>
+        <v>2.851989739099063</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -585,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.2380091527088908</v>
+        <v>0.2722875540392151</v>
       </c>
       <c r="C8">
-        <v>0.3649913975980823</v>
+        <v>1.725110569588582</v>
       </c>
       <c r="D8">
-        <v>0.267128208091335</v>
+        <v>8.603484540338279</v>
       </c>
       <c r="E8">
-        <v>0.5168444718591222</v>
+        <v>2.933169708751657</v>
       </c>
       <c r="F8">
-        <v>0.5025692206868195</v>
+        <v>2.953505164405249</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -608,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.3029994029988738</v>
+        <v>0.3499353129240411</v>
       </c>
       <c r="C9">
-        <v>0.4096660696655476</v>
+        <v>1.708867493651148</v>
       </c>
       <c r="D9">
-        <v>0.2533326875858977</v>
+        <v>8.79813827900456</v>
       </c>
       <c r="E9">
-        <v>0.5033216541992781</v>
+        <v>2.966165585230292</v>
       </c>
       <c r="F9">
-        <v>0.4922256332743508</v>
+        <v>2.979503924895169</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -631,19 +634,45 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.4690015876295774</v>
+        <v>0.2573786280145778</v>
       </c>
       <c r="C10">
-        <v>0.4690015876295774</v>
+        <v>1.691059197863888</v>
       </c>
       <c r="D10">
-        <v>0.2199624891990642</v>
+        <v>8.352307215966194</v>
       </c>
       <c r="E10">
-        <v>0.4690015876295774</v>
+        <v>2.890035850290822</v>
+      </c>
+      <c r="F10">
+        <v>2.912619213524731</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.2874384264431032</v>
+      </c>
+      <c r="C11">
+        <v>1.714766158501543</v>
+      </c>
+      <c r="D11">
+        <v>8.919363088342259</v>
+      </c>
+      <c r="E11">
+        <v>2.986530275812093</v>
+      </c>
+      <c r="F11">
+        <v>3.008699476163549</v>
+      </c>
+      <c r="G11">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2240261301401967</v>
+        <v>0.3727225121859444</v>
       </c>
       <c r="C2">
-        <v>1.34776042189687</v>
+        <v>0.6372641261613128</v>
       </c>
       <c r="D2">
-        <v>8.330079577401087</v>
+        <v>1.965062213232442</v>
       </c>
       <c r="E2">
-        <v>2.886187723867089</v>
+        <v>1.401806767437096</v>
       </c>
       <c r="F2">
-        <v>2.9061124733609</v>
+        <v>1.36772809637337</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3015350435189421</v>
+        <v>0.2976910399304882</v>
       </c>
       <c r="C3">
-        <v>1.634473129698246</v>
+        <v>1.629165046036635</v>
       </c>
       <c r="D3">
-        <v>9.405841710792368</v>
+        <v>10.34713004385456</v>
       </c>
       <c r="E3">
-        <v>3.066894473370802</v>
+        <v>3.216695516186534</v>
       </c>
       <c r="F3">
-        <v>3.083021035019027</v>
+        <v>3.242679885652398</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2397024084672859</v>
+        <v>0.4139188059809612</v>
       </c>
       <c r="C4">
-        <v>1.273559806460503</v>
+        <v>1.98609150325526</v>
       </c>
       <c r="D4">
-        <v>6.25558203749066</v>
+        <v>11.72660112313263</v>
       </c>
       <c r="E4">
-        <v>2.501116158336246</v>
+        <v>3.42441252233615</v>
       </c>
       <c r="F4">
-        <v>2.515403027889767</v>
+        <v>3.442609675766326</v>
       </c>
       <c r="G4">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.28645024546988</v>
+        <v>0.345497840849309</v>
       </c>
       <c r="C5">
-        <v>1.336241691786354</v>
+        <v>1.524908450335369</v>
       </c>
       <c r="D5">
-        <v>6.93067963156568</v>
+        <v>7.819823532002397</v>
       </c>
       <c r="E5">
-        <v>2.632618398394587</v>
+        <v>2.796394738230352</v>
       </c>
       <c r="F5">
-        <v>2.644681707289316</v>
+        <v>2.811244976990498</v>
       </c>
       <c r="G5">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2510080378810327</v>
+        <v>0.3752266091686803</v>
       </c>
       <c r="C6">
-        <v>1.618237384748787</v>
+        <v>1.571805191309441</v>
       </c>
       <c r="D6">
-        <v>9.429041488443973</v>
+        <v>8.63411951296855</v>
       </c>
       <c r="E6">
-        <v>3.070674435436615</v>
+        <v>2.938387229921977</v>
       </c>
       <c r="F6">
-        <v>3.09348443368957</v>
+        <v>2.953451170356343</v>
       </c>
       <c r="G6">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.317070059663221</v>
+        <v>0.3239305516647724</v>
       </c>
       <c r="C7">
-        <v>1.568161529071841</v>
+        <v>1.94068125439295</v>
       </c>
       <c r="D7">
-        <v>8.05755616701061</v>
+        <v>11.88616968746341</v>
       </c>
       <c r="E7">
-        <v>2.838583478957525</v>
+        <v>3.447632475694504</v>
       </c>
       <c r="F7">
-        <v>2.851989739099063</v>
+        <v>3.479726327644884</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2722875540392151</v>
+        <v>0.4409243159915613</v>
       </c>
       <c r="C8">
-        <v>1.725110569588582</v>
+        <v>1.867929990740303</v>
       </c>
       <c r="D8">
-        <v>8.603484540338279</v>
+        <v>10.18049788279822</v>
       </c>
       <c r="E8">
-        <v>2.933169708751657</v>
+        <v>3.190689248861164</v>
       </c>
       <c r="F8">
-        <v>2.953505164405249</v>
+        <v>3.20490254228095</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.3499353129240411</v>
+        <v>0.2068855017986488</v>
       </c>
       <c r="C9">
-        <v>1.708867493651148</v>
+        <v>1.877086558027514</v>
       </c>
       <c r="D9">
-        <v>8.79813827900456</v>
+        <v>9.640898133451001</v>
       </c>
       <c r="E9">
-        <v>2.966165585230292</v>
+        <v>3.104979570536818</v>
       </c>
       <c r="F9">
-        <v>2.979503924895169</v>
+        <v>3.143309319673054</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2573786280145778</v>
+        <v>0.2065980052778838</v>
       </c>
       <c r="C10">
-        <v>1.691059197863888</v>
+        <v>1.754627923521455</v>
       </c>
       <c r="D10">
-        <v>8.352307215966194</v>
+        <v>9.67997629248107</v>
       </c>
       <c r="E10">
-        <v>2.890035850290822</v>
+        <v>3.111266027275885</v>
       </c>
       <c r="F10">
-        <v>2.912619213524731</v>
+        <v>3.151084377699847</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.2874384264431032</v>
+        <v>0.1604381641035482</v>
       </c>
       <c r="C11">
-        <v>1.714766158501543</v>
+        <v>1.686203793552309</v>
       </c>
       <c r="D11">
-        <v>8.919363088342259</v>
+        <v>9.063316191497741</v>
       </c>
       <c r="E11">
-        <v>2.986530275812093</v>
+        <v>3.010534203675112</v>
       </c>
       <c r="F11">
-        <v>3.008699476163549</v>
+        <v>3.052867509463926</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3727225121859444</v>
+        <v>0.09181472831639451</v>
       </c>
       <c r="C2">
-        <v>0.6372641261613128</v>
+        <v>1.838119433117105</v>
       </c>
       <c r="D2">
-        <v>1.965062213232442</v>
+        <v>17.95916271619692</v>
       </c>
       <c r="E2">
-        <v>1.401806767437096</v>
+        <v>4.237825234267799</v>
       </c>
       <c r="F2">
-        <v>1.36772809637337</v>
+        <v>4.278989066040988</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2976910399304882</v>
+        <v>7.413020273047021E-05</v>
       </c>
       <c r="C3">
-        <v>1.629165046036635</v>
+        <v>2.091730062774077</v>
       </c>
       <c r="D3">
-        <v>10.34713004385456</v>
+        <v>18.37008874755701</v>
       </c>
       <c r="E3">
-        <v>3.216695516186534</v>
+        <v>4.286034151468816</v>
       </c>
       <c r="F3">
-        <v>3.242679885652398</v>
+        <v>4.329548303496322</v>
       </c>
       <c r="G3">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4139188059809612</v>
+        <v>0.07697517700982162</v>
       </c>
       <c r="C4">
-        <v>1.98609150325526</v>
+        <v>1.786816454232815</v>
       </c>
       <c r="D4">
-        <v>11.72660112313263</v>
+        <v>10.61989574786886</v>
       </c>
       <c r="E4">
-        <v>3.42441252233615</v>
+        <v>3.258818152009844</v>
       </c>
       <c r="F4">
-        <v>3.442609675766326</v>
+        <v>3.291670541969232</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.345497840849309</v>
+        <v>0.005243764112333811</v>
       </c>
       <c r="C5">
-        <v>1.524908450335369</v>
+        <v>1.747033754236641</v>
       </c>
       <c r="D5">
-        <v>7.819823532002397</v>
+        <v>11.76101659567932</v>
       </c>
       <c r="E5">
-        <v>2.796394738230352</v>
+        <v>3.429433859353365</v>
       </c>
       <c r="F5">
-        <v>2.811244976990498</v>
+        <v>3.465721123983597</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.3752266091686803</v>
+        <v>0.05952959428276366</v>
       </c>
       <c r="C6">
-        <v>1.571805191309441</v>
+        <v>2.303747599184862</v>
       </c>
       <c r="D6">
-        <v>8.63411951296855</v>
+        <v>19.73205291551434</v>
       </c>
       <c r="E6">
-        <v>2.938387229921977</v>
+        <v>4.442077544968608</v>
       </c>
       <c r="F6">
-        <v>2.953451170356343</v>
+        <v>4.489698183225748</v>
       </c>
       <c r="G6">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.3239305516647724</v>
+        <v>0.0295772053651569</v>
       </c>
       <c r="C7">
-        <v>1.94068125439295</v>
+        <v>2.295364381528962</v>
       </c>
       <c r="D7">
-        <v>11.88616968746341</v>
+        <v>15.73071993611709</v>
       </c>
       <c r="E7">
-        <v>3.447632475694504</v>
+        <v>3.96619716304133</v>
       </c>
       <c r="F7">
-        <v>3.479726327644884</v>
+        <v>4.00991237297396</v>
       </c>
       <c r="G7">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.4409243159915613</v>
+        <v>0.08692572624757923</v>
       </c>
       <c r="C8">
-        <v>1.867929990740303</v>
+        <v>2.233491525293952</v>
       </c>
       <c r="D8">
-        <v>10.18049788279822</v>
+        <v>14.67667969733654</v>
       </c>
       <c r="E8">
-        <v>3.190689248861164</v>
+        <v>3.83101549165969</v>
       </c>
       <c r="F8">
-        <v>3.20490254228095</v>
+        <v>3.873307732227242</v>
       </c>
       <c r="G8">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2068855017986488</v>
+        <v>0.04420571028408105</v>
       </c>
       <c r="C9">
-        <v>1.877086558027514</v>
+        <v>2.418601878655092</v>
       </c>
       <c r="D9">
-        <v>9.640898133451001</v>
+        <v>15.97758211506545</v>
       </c>
       <c r="E9">
-        <v>3.104979570536818</v>
+        <v>3.997196782129377</v>
       </c>
       <c r="F9">
-        <v>3.143309319673054</v>
+        <v>4.04316141182984</v>
       </c>
       <c r="G9">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2065980052778838</v>
+        <v>0.1200444304270716</v>
       </c>
       <c r="C10">
-        <v>1.754627923521455</v>
+        <v>2.442402265346571</v>
       </c>
       <c r="D10">
-        <v>9.67997629248107</v>
+        <v>16.98616212122741</v>
       </c>
       <c r="E10">
-        <v>3.111266027275885</v>
+        <v>4.121427194701782</v>
       </c>
       <c r="F10">
-        <v>3.151084377699847</v>
+        <v>4.168433851739839</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1604381641035482</v>
+        <v>0.0538547395322746</v>
       </c>
       <c r="C11">
-        <v>1.686203793552309</v>
+        <v>2.439448375966829</v>
       </c>
       <c r="D11">
-        <v>9.063316191497741</v>
+        <v>16.12360189523408</v>
       </c>
       <c r="E11">
-        <v>3.010534203675112</v>
+        <v>4.015420512877085</v>
       </c>
       <c r="F11">
-        <v>3.052867509463926</v>
+        <v>4.063728510277974</v>
       </c>
       <c r="G11">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/PRIVCON/Tables/naive_tbl/AVERAGE_1_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0295772053651569</v>
+        <v>0.05422975282401672</v>
       </c>
       <c r="C7">
-        <v>2.295364381528962</v>
+        <v>2.682531801186378</v>
       </c>
       <c r="D7">
-        <v>15.73071993611709</v>
+        <v>18.95522674257797</v>
       </c>
       <c r="E7">
-        <v>3.96619716304133</v>
+        <v>4.353760069477643</v>
       </c>
       <c r="F7">
-        <v>4.00991237297396</v>
+        <v>4.41186013140652</v>
       </c>
       <c r="G7">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.08692572624757923</v>
+        <v>0.09175281835627994</v>
       </c>
       <c r="C8">
-        <v>2.233491525293952</v>
+        <v>2.663306588085196</v>
       </c>
       <c r="D8">
-        <v>14.67667969733654</v>
+        <v>17.83211946726106</v>
       </c>
       <c r="E8">
-        <v>3.83101549165969</v>
+        <v>4.222809428243365</v>
       </c>
       <c r="F8">
-        <v>3.873307732227242</v>
+        <v>4.280047159788971</v>
       </c>
       <c r="G8">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04420571028408105</v>
+        <v>0.07118176867328285</v>
       </c>
       <c r="C9">
-        <v>2.418601878655092</v>
+        <v>3.846179246344002</v>
       </c>
       <c r="D9">
-        <v>15.97758211506545</v>
+        <v>30.36400025844973</v>
       </c>
       <c r="E9">
-        <v>3.997196782129377</v>
+        <v>5.51035391408299</v>
       </c>
       <c r="F9">
-        <v>4.04316141182984</v>
+        <v>5.653032108082237</v>
       </c>
       <c r="G9">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1200444304270716</v>
+        <v>0.0002549338085925304</v>
       </c>
       <c r="C10">
-        <v>2.442402265346571</v>
+        <v>4.420675973149636</v>
       </c>
       <c r="D10">
-        <v>16.98616212122741</v>
+        <v>37.99070145917987</v>
       </c>
       <c r="E10">
-        <v>4.121427194701782</v>
+        <v>6.163659745571609</v>
       </c>
       <c r="F10">
-        <v>4.168433851739839</v>
+        <v>6.415340456829838</v>
       </c>
       <c r="G10">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0538547395322746</v>
+        <v>-0.1404721957463057</v>
       </c>
       <c r="C11">
-        <v>2.439448375966829</v>
+        <v>3.824781345671012</v>
       </c>
       <c r="D11">
-        <v>16.12360189523408</v>
+        <v>24.88086598134253</v>
       </c>
       <c r="E11">
-        <v>4.015420512877085</v>
+        <v>4.988072371301617</v>
       </c>
       <c r="F11">
-        <v>4.063728510277974</v>
+        <v>5.574622581794747</v>
       </c>
       <c r="G11">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
